--- a/uploads/Cantidades/Cantidad Panulcillo.xlsx
+++ b/uploads/Cantidades/Cantidad Panulcillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/Cantidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523085D1-03EB-4AF0-B067-0ADA0181D0D5}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50F17E26-B9F7-4D42-B81D-1FD82262C2FE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>id_categoria</t>
   </si>
@@ -43,6 +43,45 @@
   </si>
   <si>
     <t>HH</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>VIAJE</t>
   </si>
 </sst>
 </file>
@@ -416,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,6 +846,538 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>44101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>63561</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>44102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>359053</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>1786</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>44107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>280</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>44108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>44109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>956</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>44110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>919</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>44111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>2434</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>44112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>2757</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>44113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>63</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>44114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>44115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>1344</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>44116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>26797</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>44117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>3432</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>44118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>799</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>44119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>44120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>3432</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>44121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>3119</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>44122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>347</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>1021</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>44124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>1021</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>44125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>44126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1097</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>848</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>44128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>44129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>44130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>44131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>1184</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>44132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>46</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>44133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>442</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>44135</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>44136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>1736</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>44137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>158</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>44138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/Cantidades/Cantidad Panulcillo.xlsx
+++ b/uploads/Cantidades/Cantidad Panulcillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/Cantidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50F17E26-B9F7-4D42-B81D-1FD82262C2FE}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2CF951-CDCF-4312-9F5A-58FBDF6F66EF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>id_categoria</t>
   </si>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,69 +96,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -167,19 +119,128 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -190,6 +251,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C8779F0-5E05-4D38-9959-BA7C4DF041ED}" name="Tabla1" displayName="Tabla1" ref="A1:D72" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D72" xr:uid="{0C8779F0-5E05-4D38-9959-BA7C4DF041ED}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4507005B-5AC0-4505-B3BC-25ED8D5FB71D}" name="id_categoria" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7B7C0251-7970-4F8C-A4DD-1DBBAED1B2C9}" name="unidad_medida" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2199568C-02E4-4DE7-A8C3-14F3CA878C9A}" name="cantidad" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4C20B606-EB37-4252-A2CA-437E451B511A}" name="fc" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,16 +529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,27 +560,27 @@
       <c r="A2" s="3">
         <v>44073</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>44074</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -514,27 +588,27 @@
       <c r="A4" s="3">
         <v>44075</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>44076</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -542,27 +616,27 @@
       <c r="A6" s="3">
         <v>44077</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44078</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -570,27 +644,27 @@
       <c r="A8" s="3">
         <v>44079</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>44080</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -598,27 +672,27 @@
       <c r="A10" s="3">
         <v>44081</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>44082</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -626,27 +700,27 @@
       <c r="A12" s="3">
         <v>44083</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>44084</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -654,27 +728,27 @@
       <c r="A14" s="3">
         <v>44085</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>44086</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -682,27 +756,27 @@
       <c r="A16" s="3">
         <v>44087</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>44088</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -710,27 +784,27 @@
       <c r="A18" s="3">
         <v>44089</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>44090</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -738,27 +812,27 @@
       <c r="A20" s="3">
         <v>44091</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>44092</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
         <v>0</v>
       </c>
     </row>
@@ -766,27 +840,27 @@
       <c r="A22" s="3">
         <v>44093</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>44094</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -794,27 +868,27 @@
       <c r="A24" s="3">
         <v>44095</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>44096</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
         <v>0</v>
       </c>
     </row>
@@ -822,27 +896,27 @@
       <c r="A26" s="3">
         <v>44097</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>44098</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
         <v>0</v>
       </c>
     </row>
@@ -850,27 +924,27 @@
       <c r="A28" s="3">
         <v>44101</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>63561</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>44102</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>359053</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -878,27 +952,27 @@
       <c r="A30" s="3">
         <v>44103</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>12</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>44104</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>10</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0</v>
       </c>
     </row>
@@ -906,27 +980,27 @@
       <c r="A32" s="3">
         <v>44105</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>44106</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>1786</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0</v>
       </c>
     </row>
@@ -934,27 +1008,27 @@
       <c r="A34" s="3">
         <v>44107</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>280</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>44108</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>0</v>
       </c>
     </row>
@@ -962,27 +1036,27 @@
       <c r="A36" s="3">
         <v>44109</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>956</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>44110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>919</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>0</v>
       </c>
     </row>
@@ -990,27 +1064,27 @@
       <c r="A38" s="3">
         <v>44111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>2434</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>44112</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>2757</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1018,27 +1092,27 @@
       <c r="A40" s="3">
         <v>44113</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>63</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>44114</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>46</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1046,27 +1120,27 @@
       <c r="A42" s="3">
         <v>44115</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>1344</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>44116</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>26797</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1074,27 +1148,27 @@
       <c r="A44" s="3">
         <v>44117</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>3432</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44118</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>799</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1102,27 +1176,27 @@
       <c r="A46" s="3">
         <v>44119</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>96</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>44120</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>3432</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1130,27 +1204,27 @@
       <c r="A48" s="3">
         <v>44121</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>3119</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>44122</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>347</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1158,27 +1232,27 @@
       <c r="A50" s="3">
         <v>44123</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>1021</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>44124</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>1021</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1186,27 +1260,27 @@
       <c r="A52" s="3">
         <v>44125</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>44126</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>1097</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1214,27 +1288,27 @@
       <c r="A54" s="3">
         <v>44127</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>848</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>44128</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>52</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1242,27 +1316,27 @@
       <c r="A56" s="3">
         <v>44129</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>12</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>44130</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>12</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1270,27 +1344,27 @@
       <c r="A58" s="3">
         <v>44131</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>1184</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>44132</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>46</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1298,27 +1372,27 @@
       <c r="A60" s="3">
         <v>44133</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>442</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>44134</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>89</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1326,27 +1400,27 @@
       <c r="A62" s="3">
         <v>44135</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>104</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>44136</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>1736</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1354,31 +1428,132 @@
       <c r="A64" s="3">
         <v>44137</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>158</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>44138</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>2</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>44189</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4">
+        <v>56</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>44190</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="4">
+        <v>16</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>44191</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="4">
+        <v>24</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>44192</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4">
+        <v>24</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>44193</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>44194</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4">
+        <v>16</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4">
+        <v>40</v>
+      </c>
+      <c r="D72" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>